--- a/Data/parallel_calib.xlsx
+++ b/Data/parallel_calib.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1408225223190705</v>
+        <v>0.140831584153174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1430929623784564</v>
+        <v>0.1430981857607445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143247632217065</v>
+        <v>0.14325888082494</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1455523470285296</v>
+        <v>0.1455605397106715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1484334569995418</v>
+        <v>0.148436473477015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1611161155253856</v>
+        <v>0.1611160281537656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.150302007088335</v>
+        <v>0.1503184710115056</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1362885071804305</v>
+        <v>0.1363385101887228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1289686720395208</v>
+        <v>0.1289768084405508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1547776276016593</v>
+        <v>0.1547085501884867</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1518160080111829</v>
+        <v>0.1517748596262891</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1525952858873858</v>
+        <v>0.1525152192309344</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1657390558718227</v>
+        <v>0.1656443019271932</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1739251160674287</v>
+        <v>0.1738642679218969</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1317379312302339</v>
+        <v>0.1319911457162762</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1669755942397636</v>
+        <v>0.1670261884368731</v>
       </c>
       <c r="R2" t="n">
-        <v>0.178743475870899</v>
+        <v>0.1784977472139462</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1691984782113417</v>
+        <v>0.1686257604627787</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2255252005878791</v>
+        <v>0.2249958204276025</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2002918507035158</v>
+        <v>0.2003065870795543</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2489120534475002</v>
+        <v>0.2488154070203282</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3464344617450503</v>
+        <v>0.3462987475627551</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4007526487079773</v>
+        <v>0.400769804630949</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5275990515493016</v>
+        <v>0.527204950261943</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5676736399690383</v>
+        <v>0.566834173713803</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5900817646008319</v>
+        <v>0.5897800794742325</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.536541582724006</v>
+        <v>0.5362585057640261</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4568940600215004</v>
+        <v>0.4566510199733785</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.149203804230707</v>
+        <v>0.1491760835728727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1425111532302167</v>
+        <v>0.1424921539884238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1429689800610953</v>
+        <v>0.1429305641610627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1347427196507203</v>
+        <v>0.1347046100720707</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1206515515716303</v>
+        <v>0.120634940310006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09727299201009729</v>
+        <v>0.09724251469243675</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1210320585743183</v>
+        <v>0.1209656507654493</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1491510272148622</v>
+        <v>0.1490306200166913</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1626985609294955</v>
+        <v>0.1626423632198156</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1183529793306089</v>
+        <v>0.1184043384204353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.080026686047285</v>
+        <v>0.08023462114750868</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1325542735353735</v>
+        <v>0.1326690676088583</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1300673570153646</v>
+        <v>0.1302360890361256</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05774046447588602</v>
+        <v>0.05791469336880981</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02278409958355635</v>
+        <v>0.02306977495469528</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04913581622035139</v>
+        <v>0.04968773075670708</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09660427830624034</v>
+        <v>0.09741465414339757</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1806526229473568</v>
+        <v>0.181743635412991</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1073175504232673</v>
+        <v>0.1081949288561846</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0148799627286047</v>
+        <v>0.01508479718492057</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01683323896726248</v>
+        <v>0.01711062686646287</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01476586543386876</v>
+        <v>0.01501378508366466</v>
       </c>
       <c r="X3" t="n">
-        <v>0.004996861331024575</v>
+        <v>0.005083692555371359</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.006716421103435826</v>
+        <v>0.006833349098341404</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01494961246010971</v>
+        <v>0.01517181173548762</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002962832912711699</v>
+        <v>0.003027187776107993</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0004486245215406941</v>
+        <v>0.0004611375301664343</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001066387324372978</v>
+        <v>0.0001101820149531632</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1492038141271382</v>
+        <v>0.1491760934255739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1425111523457493</v>
+        <v>0.1424921530772663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1429689790082825</v>
+        <v>0.1429305630525026</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1347427069512943</v>
+        <v>0.1347045973259667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120651521906878</v>
+        <v>0.1206349106268892</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09727329185454253</v>
+        <v>0.09724281413277147</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1210321919661925</v>
+        <v>0.1209657837302236</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1491509633054464</v>
+        <v>0.1490305562545054</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1626983854519918</v>
+        <v>0.1626421858552993</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1183533832802111</v>
+        <v>0.1184047393157338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1368989435854037</v>
+        <v>0.1368667787777769</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1129210878077641</v>
+        <v>0.1129524258604346</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1061689467204058</v>
+        <v>0.1061723668155216</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1385312112884086</v>
+        <v>0.1385105610451138</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1712417502182412</v>
+        <v>0.1710613737076518</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.149782286339972</v>
+        <v>0.14947672770805</v>
       </c>
       <c r="R4" t="n">
-        <v>0.120890847386509</v>
+        <v>0.1205669839304337</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07751925234089263</v>
+        <v>0.0772514993061019</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09484814439904941</v>
+        <v>0.09454014739335412</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1714528622433879</v>
+        <v>0.171286223036426</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1369410606939162</v>
+        <v>0.1367869587862333</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07685047896544095</v>
+        <v>0.07672444980790678</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05727747152336517</v>
+        <v>0.05721112779022459</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01964841817049967</v>
+        <v>0.01968013632647806</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.008745004930775907</v>
+        <v>0.008786762880434213</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004066772406247364</v>
+        <v>0.004081762215308668</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001491969750989681</v>
+        <v>0.001503675715679722</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0002073346591178923</v>
+        <v>0.0002118414620701664</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1492075396287317</v>
+        <v>0.1491798024650118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1425108193603975</v>
+        <v>0.142491810044749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1429685825695163</v>
+        <v>0.1429301456280713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.134737926292876</v>
+        <v>0.134699799096879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1206403551504728</v>
+        <v>0.1206237369580778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09725862847835202</v>
+        <v>0.097228153647187</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1210181371442017</v>
+        <v>0.1209517339431663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1491376337772407</v>
+        <v>0.1490172248937931</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1626856939405139</v>
+        <v>0.1626295208629396</v>
       </c>
       <c r="K5" t="n">
-        <v>0.11833485719832</v>
+        <v>0.1183862529815422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1155545217219038</v>
+        <v>0.1156276668850251</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1168006963628441</v>
+        <v>0.1168425834451305</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1272081220051763</v>
+        <v>0.1272487467125933</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1324500877786769</v>
+        <v>0.132523033641729</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0991997642282987</v>
+        <v>0.09948912761558393</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1247511495145973</v>
+        <v>0.1249137021025215</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1327080783609788</v>
+        <v>0.1326608439898509</v>
       </c>
       <c r="S5" t="n">
-        <v>0.12456858107409</v>
+        <v>0.1242761272848104</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1662406487388853</v>
+        <v>0.1660196499158281</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1504949859529482</v>
+        <v>0.1506603158435282</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1765481697105999</v>
+        <v>0.1766420992864493</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2347277341731804</v>
+        <v>0.234853397488743</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2697471988639471</v>
+        <v>0.2699537567410694</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2992739372505886</v>
+        <v>0.2992633928241364</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2830225094482828</v>
+        <v>0.2829485443833838</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3565367363549189</v>
+        <v>0.3565462396853573</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.4461307983877939</v>
+        <v>0.4462908606536214</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5401196423009228</v>
+        <v>0.5403043889391422</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1333764389121245</v>
+        <v>0.1334176624766505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1432424057442605</v>
+        <v>0.1432717345773514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1422378167313075</v>
+        <v>0.1422964023234289</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1548930128322377</v>
+        <v>0.1549542837311064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1776969872737413</v>
+        <v>0.177724307121413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2005278312215439</v>
+        <v>0.2005791184662847</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1753990567793927</v>
+        <v>0.1754875963593704</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1468044072775682</v>
+        <v>0.1469410246041568</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1335573996065082</v>
+        <v>0.1336373802063733</v>
       </c>
       <c r="K6" t="n">
-        <v>0.175211322689356</v>
+        <v>0.1752050436753478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2066053590330799</v>
+        <v>0.2064399560838899</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1667404153818732</v>
+        <v>0.1667072335563861</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1534734189282153</v>
+        <v>0.1534040812292237</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2033970277103668</v>
+        <v>0.203256129281705</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2687422506916745</v>
+        <v>0.268226973172587</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2120834562492422</v>
+        <v>0.2115272633893778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1587013467492615</v>
+        <v>0.1582332713614116</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09147793077072928</v>
+        <v>0.0911764203810862</v>
       </c>
       <c r="T6" t="n">
-        <v>0.104513217744228</v>
+        <v>0.1041778196864074</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2112131390495258</v>
+        <v>0.2109618932903933</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1952087769987966</v>
+        <v>0.1948876937093519</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1662285271687463</v>
+        <v>0.1658891754838542</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1529697526418674</v>
+        <v>0.1526688885534143</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08075276460233106</v>
+        <v>0.08066042302978914</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04747504467257368</v>
+        <v>0.04750854233008481</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02329399485597625</v>
+        <v>0.02328107221919234</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009161423326460178</v>
+        <v>0.009191411608841415</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001416702763499179</v>
+        <v>0.00143990599062979</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444414481867691</v>
+        <v>0.1444346936297273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1428861771798589</v>
+        <v>0.1428805478958084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1432870643107576</v>
+        <v>0.1432762985503584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1408843736359385</v>
+        <v>0.1408708762305971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1357747861371986</v>
+        <v>0.135768308808712</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1479735544447561</v>
+        <v>0.1479650109089257</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1371939075362086</v>
+        <v>0.1372028005021433</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1234666753987563</v>
+        <v>0.1235083024278114</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1164071473017744</v>
+        <v>0.1164105509788471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.140945791841894</v>
+        <v>0.1408761361573454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1041766666539036</v>
+        <v>0.1043003137915337</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1527485911826255</v>
+        <v>0.1527094277172385</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1646462984612586</v>
+        <v>0.1646689737482447</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09179995789980468</v>
+        <v>0.09191747177955047</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04048355045739027</v>
+        <v>0.04085756937963406</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08437560793509642</v>
+        <v>0.08503735930639865</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1513037231798053</v>
+        <v>0.1520656672070765</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2623198369548014</v>
+        <v>0.2629872160607853</v>
       </c>
       <c r="T7" t="n">
-        <v>0.192679043248147</v>
+        <v>0.1935587754587095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03456100644037458</v>
+        <v>0.03487091678421413</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04336617216700626</v>
+        <v>0.04384818546313444</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04225644282475539</v>
+        <v>0.04272993685627718</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01884888932321891</v>
+        <v>0.01907399811869466</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02828369061344641</v>
+        <v>0.02862084775965334</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.05968614024396784</v>
+        <v>0.06024662576814493</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01366014665653131</v>
+        <v>0.01387059895004885</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.002344011410967937</v>
+        <v>0.002392443555171608</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0006065592913536766</v>
+        <v>0.0006220073756350732</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1337444325954589</v>
+        <v>0.1337840802769898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1432453297610604</v>
+        <v>0.1432734146556567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1423209451019759</v>
+        <v>0.1423771454596363</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1544469136084034</v>
+        <v>0.1545052938327085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.176151340960537</v>
+        <v>0.1761773226978868</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1985775864653226</v>
+        <v>0.1986263599986288</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1740226409113512</v>
+        <v>0.1741079636881414</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1460007858456955</v>
+        <v>0.1461337616143191</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1329841407301952</v>
+        <v>0.1330611904361742</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1740240380579507</v>
+        <v>0.174014939261109</v>
       </c>
       <c r="L8" t="n">
-        <v>0.204921814947241</v>
+        <v>0.2047558036879766</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1656396498421339</v>
+        <v>0.1656040425810175</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1526968009977568</v>
+        <v>0.1526254405310978</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2021561347794284</v>
+        <v>0.2020138429611949</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2658106535906051</v>
+        <v>0.2653040354535717</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2128960895009772</v>
+        <v>0.2123310283000719</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1610482501463059</v>
+        <v>0.1605608321538836</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09426329770078809</v>
+        <v>0.09393934109144648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.108876194858544</v>
+        <v>0.1085128582619139</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2171061928816432</v>
+        <v>0.2168292667809636</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1821905280149183</v>
+        <v>0.1819090288680399</v>
       </c>
       <c r="W8" t="n">
-        <v>0.118736489688958</v>
+        <v>0.1184905077167988</v>
       </c>
       <c r="X8" t="n">
-        <v>0.09540717760859953</v>
+        <v>0.09523873161027668</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03772571671039684</v>
+        <v>0.03773690069965859</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01844804827525177</v>
+        <v>0.01850353918866166</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.009397752212782497</v>
+        <v>0.009413059679752166</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003881589878241549</v>
+        <v>0.003901965172493522</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0006490622311686104</v>
+        <v>0.0006606542441910164</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1394573615091785</v>
+        <v>0.1394580183499567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417392048768471</v>
+        <v>0.1417387717792108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438557059637807</v>
+        <v>0.1438545418361263</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1448742959952795</v>
+        <v>0.1448729637877993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143730500430542</v>
+        <v>0.143728273818772</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1617153440739156</v>
+        <v>0.1617179878269221</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1132468958761301</v>
+        <v>0.1132459212991248</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1344723237676161</v>
+        <v>0.1344660809359826</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1258482120378952</v>
+        <v>0.1258411076789377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1274519851120708</v>
+        <v>0.1274951257238925</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1426039257383249</v>
+        <v>0.1426522426234972</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1221484452144254</v>
+        <v>0.1222420122047179</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1436975964556611</v>
+        <v>0.14380871488607</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09469227105931233</v>
+        <v>0.09482150792401307</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0782617811857024</v>
+        <v>0.07838558490526562</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1215945828843554</v>
+        <v>0.1217192497686342</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07322640418404554</v>
+        <v>0.07334468034161182</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03309144556435539</v>
+        <v>0.03314557602377312</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1037883245535015</v>
+        <v>0.1038858369625842</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05577729677581943</v>
+        <v>0.05583392918689171</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02953374980271361</v>
+        <v>0.02957250891045213</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01659474815126531</v>
+        <v>0.01661900480057903</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01231326690874824</v>
+        <v>0.0123325848005291</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03336429193050001</v>
+        <v>0.03341665745342621</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02096295249207772</v>
+        <v>0.02099734530141925</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.008281476765063418</v>
+        <v>0.008297151959684359</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02145656686096751</v>
+        <v>0.02149601025666288</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.003764950230824384</v>
+        <v>0.003773237090016003</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1526917725128231</v>
+        <v>0.1526891952930331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1453817477603333</v>
+        <v>0.1453820080852636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1369439912175374</v>
+        <v>0.1369467298836916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1319833468452491</v>
+        <v>0.1319873982228361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1393061245401871</v>
+        <v>0.1393124717819757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1209281400048377</v>
+        <v>0.1209328581435821</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1926432933591982</v>
+        <v>0.1926422950440318</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1597787543158853</v>
+        <v>0.1597850405701463</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1730546440635099</v>
+        <v>0.1730624320675586</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1891053362507386</v>
+        <v>0.1890497271199821</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1763221799353637</v>
+        <v>0.1762563793399071</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2683701773053193</v>
+        <v>0.2680597636316416</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2312420994081402</v>
+        <v>0.2309477097138597</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4208092310107228</v>
+        <v>0.4203717737134552</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4851062916402932</v>
+        <v>0.4846598100154041</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3135623846907288</v>
+        <v>0.3131392141255763</v>
       </c>
       <c r="R3" t="n">
-        <v>0.505926195691246</v>
+        <v>0.5054676314727674</v>
       </c>
       <c r="S3" t="n">
-        <v>0.631697622453108</v>
+        <v>0.6313888728973497</v>
       </c>
       <c r="T3" t="n">
-        <v>0.447804834363599</v>
+        <v>0.4475298864395589</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5684027650499052</v>
+        <v>0.5681545878552151</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6528496385691188</v>
+        <v>0.6526043910862583</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6765587503526463</v>
+        <v>0.6763216833742618</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6938061048073839</v>
+        <v>0.6935744834626006</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6365212021348359</v>
+        <v>0.6362623890229333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6691440420753542</v>
+        <v>0.6689035687013508</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7112022567927402</v>
+        <v>0.7109867226855613</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6779900209191326</v>
+        <v>0.6777460599637463</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6827927428195366</v>
+        <v>0.6825728817348721</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1526917886329306</v>
+        <v>0.1526892114098065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1453817526007354</v>
+        <v>0.1453820129272176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1369439845145022</v>
+        <v>0.1369467231857396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1319833339443809</v>
+        <v>0.1319873853283491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393061195584936</v>
+        <v>0.139312466810493</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1209287831509189</v>
+        <v>0.1209335014183207</v>
       </c>
       <c r="H4" t="n">
-        <v>0.192642720781116</v>
+        <v>0.1926417211695824</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1597787570301265</v>
+        <v>0.1597850420736618</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1730544005238998</v>
+        <v>0.1730621872030235</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1891058909275052</v>
+        <v>0.1890502808968209</v>
       </c>
       <c r="L4" t="n">
-        <v>0.178512839307306</v>
+        <v>0.1784729118316866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1486507821391897</v>
+        <v>0.148711095924499</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1310583919382028</v>
+        <v>0.1311077745153248</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06836396305420066</v>
+        <v>0.06843850791442184</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04990866839893762</v>
+        <v>0.04997552839331233</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1123945388545031</v>
+        <v>0.1124921478876474</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05232758150841259</v>
+        <v>0.05240280610659761</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01511425067674875</v>
+        <v>0.01513975354087594</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0456263221153946</v>
+        <v>0.04564436992483494</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01528632934499841</v>
+        <v>0.01529517064616459</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005634352761395651</v>
+        <v>0.005639773912419961</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001742093618707823</v>
+        <v>0.001744305878303485</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001017115147745258</v>
+        <v>0.001018575035853295</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0005817163909781162</v>
+        <v>0.0005826515845779445</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0002422232224394035</v>
+        <v>0.0002426306852185247</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.471926506843686e-05</v>
+        <v>4.481555325423971e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199649636370153e-06</v>
+        <v>9.240625446733824e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.039360137090433e-07</v>
+        <v>6.070482066705254e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1526978571111839</v>
+        <v>0.1526952786330802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1453835748473961</v>
+        <v>0.1453838357580305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1369414613795011</v>
+        <v>0.1369442019641794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1319784777648023</v>
+        <v>0.1319825315506765</v>
       </c>
       <c r="F5" t="n">
-        <v>0.139304244225245</v>
+        <v>0.1393105953208074</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1209158344658617</v>
+        <v>0.1209205539865244</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1926500168660067</v>
+        <v>0.1926490456264553</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1597764574715299</v>
+        <v>0.1597827683150722</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1730562195939533</v>
+        <v>0.1730640344414021</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1890935266616498</v>
+        <v>0.1890379387347321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2119012827313388</v>
+        <v>0.2118386217490705</v>
       </c>
       <c r="M5" t="n">
-        <v>0.181725819999064</v>
+        <v>0.1817481918219667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2152308574272255</v>
+        <v>0.2152593559505405</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1429052721200353</v>
+        <v>0.1430080352701042</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1185249709276082</v>
+        <v>0.1186358061614576</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1859575119617354</v>
+        <v>0.186028078899461</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1112704108283535</v>
+        <v>0.1113782201502064</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04970684135699784</v>
+        <v>0.04975625501664231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1575369946527308</v>
+        <v>0.1575823597784605</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08372275213623219</v>
+        <v>0.08375337317831717</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04149100629400489</v>
+        <v>0.04151923454937902</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02100083199726379</v>
+        <v>0.02101880279190444</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01499692733638361</v>
+        <v>0.0150115140790002</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03257527867084064</v>
+        <v>0.03260467462879683</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01921061850026586</v>
+        <v>0.0192293432188843</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.006580442212345386</v>
+        <v>0.006588796614328315</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01924412515754922</v>
+        <v>0.01927417319335824</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.002782819150105041</v>
+        <v>0.002788756835430622</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1284327426635697</v>
+        <v>0.1284367843726361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1394142244452646</v>
+        <v>0.1394142150823078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1526377904541384</v>
+        <v>0.1526340022356816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1606476622904898</v>
+        <v>0.1606416437244685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1484298147312415</v>
+        <v>0.1484205218240419</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1582830704403226</v>
+        <v>0.1582713215983883</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09923399776408412</v>
+        <v>0.09923464704982728</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1272319206759565</v>
+        <v>0.1272265691563033</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1159676167718083</v>
+        <v>0.1159610175037387</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09120546226672988</v>
+        <v>0.09124398022134876</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08296647992022423</v>
+        <v>0.08300771637940965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06893354959929011</v>
+        <v>0.06901220567379716</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05867479574938073</v>
+        <v>0.05874007668774159</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02991761790410694</v>
+        <v>0.02997255510092678</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02154184575714603</v>
+        <v>0.02158684947774911</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05055905380073785</v>
+        <v>0.0506417019090192</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02215367065085617</v>
+        <v>0.02220230483888165</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00579336243310007</v>
+        <v>0.005807852002901317</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01528811569809185</v>
+        <v>0.0153050680563814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004557386770084722</v>
+        <v>0.004563408235067109</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00184980374739897</v>
+        <v>0.001852920106360723</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0006734689694932349</v>
+        <v>0.0006747810384500763</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0004223488567903887</v>
+        <v>0.0004232346024095777</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.000354784324549731</v>
+        <v>0.000355545085903279</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001677251836026233</v>
+        <v>0.0001680973360553617</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.147771725212519e-05</v>
+        <v>3.156226022150079e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.347826319693523e-06</v>
+        <v>6.379802261447458e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.267802360013838e-07</v>
+        <v>4.292292814874837e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1450675520618738</v>
+        <v>0.1450667195066324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1431938907757402</v>
+        <v>0.1431936054273664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1405465717357798</v>
+        <v>0.1405469890885089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.138787966173411</v>
+        <v>0.1387889526473384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.141753860166261</v>
+        <v>0.1417553006716222</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1589036933601274</v>
+        <v>0.1589098276531443</v>
       </c>
       <c r="H7" t="n">
-        <v>0.110022483375876</v>
+        <v>0.1100250810363981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1316008764675522</v>
+        <v>0.1315988531634729</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1228449221915175</v>
+        <v>0.1228417461848605</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1218872419237745</v>
+        <v>0.1219335468909345</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1236320585684218</v>
+        <v>0.1236692018422552</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1403170785289462</v>
+        <v>0.1402930178672434</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1604877720515401</v>
+        <v>0.160461685502455</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2128689552383609</v>
+        <v>0.212889112509215</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2247148828950789</v>
+        <v>0.2247690885732506</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1646087434430282</v>
+        <v>0.1645727410881909</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2124143770782869</v>
+        <v>0.2124732692312154</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2585824167149665</v>
+        <v>0.2587326516779614</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2137507293145958</v>
+        <v>0.2138298177403422</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2673423051452026</v>
+        <v>0.267481893718705</v>
       </c>
       <c r="V7" t="n">
-        <v>0.266773582236725</v>
+        <v>0.2669401379670706</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2828209456163995</v>
+        <v>0.2830110492315329</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2770799591028267</v>
+        <v>0.2772745473364511</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2963683094353185</v>
+        <v>0.2965431295017754</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2901705391808044</v>
+        <v>0.2903568749794979</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2738402816596151</v>
+        <v>0.2740315507159733</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2812898991554617</v>
+        <v>0.2814642757239672</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3106581945569449</v>
+        <v>0.3108638239840573</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1289609255084402</v>
+        <v>0.1289647924348549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1395056046936832</v>
+        <v>0.1395055509406033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1521304947347605</v>
+        <v>0.1521268118060726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1597449169863873</v>
+        <v>0.1597391247385322</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1481693363480298</v>
+        <v>0.1481603697722878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1583251345040161</v>
+        <v>0.1583139493731181</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09956059197758896</v>
+        <v>0.09956128877458037</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1273609102713335</v>
+        <v>0.127355645785361</v>
       </c>
       <c r="J8" t="n">
-        <v>0.116173984817416</v>
+        <v>0.1161674749204788</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09215055685753117</v>
+        <v>0.09218940041228928</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08406123379902056</v>
+        <v>0.08410292623417376</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06985414721376521</v>
+        <v>0.06993371287613437</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05960848696984958</v>
+        <v>0.05967468274400832</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03044268961326103</v>
+        <v>0.03049850756786397</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02194155919523381</v>
+        <v>0.02198733247356075</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05132318436491125</v>
+        <v>0.05140686632147124</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02268136005879947</v>
+        <v>0.02273108785871982</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006014060800723371</v>
+        <v>0.006029038840496143</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01620467930208648</v>
+        <v>0.01622266109783759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004911164777757589</v>
+        <v>0.004917637179639362</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001867866588643137</v>
+        <v>0.001871033468059181</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0006091612942238875</v>
+        <v>0.0006103728849682674</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0003642778401218286</v>
+        <v>0.0003650606831560173</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000234417112977117</v>
+        <v>0.0002349527225870818</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0001018993454558926</v>
+        <v>0.0001021397775738817</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.934558791554837e-05</v>
+        <v>1.940021097702088e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.840430932949585e-06</v>
+        <v>3.860434557147625e-06</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.625263393085457e-07</v>
+        <v>2.64078135923379e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1413848362443082</v>
+        <v>0.1413855806584148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1425055244834938</v>
+        <v>0.1425059391140056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1433113251523772</v>
+        <v>0.1433145703262181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1446104222445637</v>
+        <v>0.144612675873203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1435394978481837</v>
+        <v>0.1435427692377091</v>
       </c>
       <c r="G2" t="n">
-        <v>0.157631441864742</v>
+        <v>0.1576396493367296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1760896564062546</v>
+        <v>0.1760829757754266</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1861075822995107</v>
+        <v>0.1860976169856756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1971762389100584</v>
+        <v>0.1971044909560069</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1921006216134781</v>
+        <v>0.1919262060230842</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1840989369298318</v>
+        <v>0.1838807447095561</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2166858600565433</v>
+        <v>0.2165465310806353</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1797831335408117</v>
+        <v>0.1797526667653704</v>
       </c>
       <c r="O2" t="n">
-        <v>0.151654652654478</v>
+        <v>0.151664199602067</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1280526104097831</v>
+        <v>0.128088504512352</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1058317867040191</v>
+        <v>0.1058250387984412</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08985153984805515</v>
+        <v>0.08985790424158634</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05071582529535463</v>
+        <v>0.05074643451586127</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07836097193119178</v>
+        <v>0.07837648116955608</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04161549098212618</v>
+        <v>0.04162346664226874</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03068530660862266</v>
+        <v>0.03065173628600099</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02171212934759032</v>
+        <v>0.02169233908111787</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01663915219605599</v>
+        <v>0.01662600560805599</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006271261066496347</v>
+        <v>0.00626913470608033</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0004456963552732564</v>
+        <v>0.0004467573877627608</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0006915832330905057</v>
+        <v>0.0006912704892848899</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000396336459316859</v>
+        <v>0.0003961834847053638</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002280352309537839</v>
+        <v>0.0002279992627806853</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1474305026040738</v>
+        <v>0.1474283610219123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1437251041147474</v>
+        <v>0.1437236561600237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1431395406366096</v>
+        <v>0.1431294942358494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1380976247845278</v>
+        <v>0.1380900364181732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.141972521202202</v>
+        <v>0.1419622191713678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1174877597014927</v>
+        <v>0.1174604029751753</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08373223525360217</v>
+        <v>0.08374189490963499</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05593211835287896</v>
+        <v>0.05593922225298101</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04987674954026462</v>
+        <v>0.050029986889182</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07073658027651632</v>
+        <v>0.07103335779629974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1086576816755833</v>
+        <v>0.1091450251197851</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04262731541882517</v>
+        <v>0.04288633502688436</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01913103117307358</v>
+        <v>0.0192642763414595</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01012456358493573</v>
+        <v>0.01020021180219927</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00604761990704488</v>
+        <v>0.006094710787797636</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001677924228085707</v>
+        <v>0.001690868503551816</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001083551711654552</v>
+        <v>0.001092153620491501</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003389364353505977</v>
+        <v>0.0003419240113117627</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00132754797031619</v>
+        <v>0.001339025469086912</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003458613541789788</v>
+        <v>0.0003490042327764169</v>
       </c>
       <c r="V3" t="n">
-        <v>7.404309083973028e-05</v>
+        <v>7.468753293047576e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.572008386217251e-05</v>
+        <v>3.604792224818462e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>2.072580845543855e-05</v>
+        <v>2.09219274692081e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.298041315638169e-06</v>
+        <v>2.325989530759325e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.572672168924949e-08</v>
+        <v>4.65857646464543e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.688477981450435e-08</v>
+        <v>6.788171619649571e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.059194115437623e-08</v>
+        <v>3.104950458098096e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.463314078444697e-08</v>
+        <v>1.485634669970706e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1474305097613732</v>
+        <v>0.1474283681756852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1437251056931137</v>
+        <v>0.1437236577362641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.143139539560168</v>
+        <v>0.1431294931441227</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1380976168628351</v>
+        <v>0.1380900284855673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1419725187533314</v>
+        <v>0.1419622167069458</v>
       </c>
       <c r="G4" t="n">
-        <v>0.117488070233069</v>
+        <v>0.1174607134686481</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08373282129697887</v>
+        <v>0.08374248082675126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05593272725712844</v>
+        <v>0.05593983102272164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04987765287646589</v>
+        <v>0.05003089117448679</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07073776332112625</v>
+        <v>0.07103454123478524</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05678357333951473</v>
+        <v>0.05700658807273451</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07958573417613496</v>
+        <v>0.0798826823031092</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09708863301091057</v>
+        <v>0.09747833875501929</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1053992073057363</v>
+        <v>0.1058427238982263</v>
       </c>
       <c r="P4" t="n">
-        <v>0.109984319862655</v>
+        <v>0.1104617881413453</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1177064617380029</v>
+        <v>0.1182371153062297</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1166342325609514</v>
+        <v>0.1171687466771748</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1080847380799987</v>
+        <v>0.1086038894491317</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1116432688990379</v>
+        <v>0.1121605399585343</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1041044703056434</v>
+        <v>0.1045915590560707</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09543819399315061</v>
+        <v>0.09591073239235058</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1066358962015413</v>
+        <v>0.1071516749292257</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1156168340226239</v>
+        <v>0.1161656556787136</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0992465478572412</v>
+        <v>0.09971612278108362</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0908724943800195</v>
+        <v>0.09127319943708112</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08892130307639544</v>
+        <v>0.08931577876000557</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09188708546201386</v>
+        <v>0.09229185790883671</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09522645544455685</v>
+        <v>0.09564254505616354</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1474332041230878</v>
+        <v>0.1474310612099018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1437256998896912</v>
+        <v>0.1437242511324173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1431391342090178</v>
+        <v>0.1431290820388982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1380946347281918</v>
+        <v>0.1380870422427664</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1419715967958955</v>
+        <v>0.1419612888953602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1174818423884039</v>
+        <v>0.1174544813500027</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08372200608366537</v>
+        <v>0.08373166410056952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05592170165868115</v>
+        <v>0.05592880528635274</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0498615209831485</v>
+        <v>0.05001473945672147</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07071659858427756</v>
+        <v>0.0710133644794303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06812238602056293</v>
+        <v>0.06838932841097671</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07947630086748987</v>
+        <v>0.07983245522934708</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0653171891146479</v>
+        <v>0.06564138253142356</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05474530737318434</v>
+        <v>0.05502994666364332</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04599106942061872</v>
+        <v>0.0462403234840199</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0383927364243428</v>
+        <v>0.0385880215561475</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03269714199962469</v>
+        <v>0.03286784245974449</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01861602820542048</v>
+        <v>0.01872306644203428</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02848726550999169</v>
+        <v>0.02863958242937121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01528775245248054</v>
+        <v>0.01536933450032295</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01349416574869052</v>
+        <v>0.01355300018174457</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01013991339073191</v>
+        <v>0.01018553845694456</v>
       </c>
       <c r="X5" t="n">
-        <v>0.008125471739621002</v>
+        <v>0.008162806392387065</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004876508652818009</v>
+        <v>0.004901702848422036</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001029055256916667</v>
+        <v>0.001037186791674453</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001583980956042606</v>
+        <v>0.001592484053140218</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0009625445967474766</v>
+        <v>0.0009677780667750621</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000583134960259505</v>
+        <v>0.000586428047086645</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.136032470814401</v>
+        <v>0.1360356072853832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1416392543796322</v>
+        <v>0.1416414692193819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1418606698333745</v>
+        <v>0.1418756796925709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149735378867923</v>
+        <v>0.1497469299471258</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1437605115656491</v>
+        <v>0.1437759606799247</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1661505704248437</v>
+        <v>0.1661866948702923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1979024844776848</v>
+        <v>0.1978990831064182</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2290557737182315</v>
+        <v>0.2290597344013752</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2272883412412612</v>
+        <v>0.2271380621127453</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2016524934329625</v>
+        <v>0.201390179277489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.158835316514442</v>
+        <v>0.1585870674199851</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2232811349420172</v>
+        <v>0.2228692287236045</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2856559451037367</v>
+        <v>0.2852049093035229</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3199216622106406</v>
+        <v>0.3194795860837877</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3434082044948762</v>
+        <v>0.3429748849038484</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3648576099719535</v>
+        <v>0.3644827573023919</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3792317671966677</v>
+        <v>0.3788626004327389</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4177698323895443</v>
+        <v>0.4174276010765706</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3912451962038901</v>
+        <v>0.3908831732871638</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4276731084020928</v>
+        <v>0.4273795063154085</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4592715351934825</v>
+        <v>0.4589735434570151</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4378834463415953</v>
+        <v>0.4375893349012139</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4199256869036063</v>
+        <v>0.4196376366659713</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4690516006062674</v>
+        <v>0.4688235034229341</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4909247541326854</v>
+        <v>0.4908521765612044</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4883911040729728</v>
+        <v>0.4883283342029844</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4913388910346293</v>
+        <v>0.4912678217387504</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4942746985669418</v>
+        <v>0.4941933878599447</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1439917202213142</v>
+        <v>0.1439912432860986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430025505502552</v>
+        <v>0.1430021442059736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.143433622646354</v>
+        <v>0.1434310667841225</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1418592419981529</v>
+        <v>0.1418571141950617</v>
       </c>
       <c r="F7" t="n">
-        <v>0.143000268216569</v>
+        <v>0.1429976001274371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1578269966997332</v>
+        <v>0.1578297791519059</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1775058383271091</v>
+        <v>0.1774907420114397</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1892709409368742</v>
+        <v>0.1892525886726153</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1994157618462233</v>
+        <v>0.1993266128392281</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1925474220154041</v>
+        <v>0.1923544160702061</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2645658896764504</v>
+        <v>0.2643022749819903</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1349458016062884</v>
+        <v>0.1349940267495305</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06819358389443124</v>
+        <v>0.06827353918218577</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03987362588608946</v>
+        <v>0.03993765935188952</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02557169513376107</v>
+        <v>0.02562038270964072</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008226031251745631</v>
+        <v>0.008239404779858709</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005538956346589833</v>
+        <v>0.005549129572309011</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001864345420819197</v>
+        <v>0.001869345818125564</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006632913625219851</v>
+        <v>0.006648611769571965</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001883438965944505</v>
+        <v>0.00188860719218343</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0004469203603471834</v>
+        <v>0.0004478808433988856</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0002251773448977226</v>
+        <v>0.0002257600394650809</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0001347716844691146</v>
+        <v>0.0001351561994004397</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.521471799295432e-05</v>
+        <v>1.52972556817358e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.468219740389097e-07</v>
+        <v>2.497782948792004e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.645240299794165e-07</v>
+        <v>3.675100726227228e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.698492574898511e-07</v>
+        <v>1.712495785391598e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.242185502994656e-08</v>
+        <v>8.312526714198971e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1362967562314419</v>
+        <v>0.1362997783626042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1416767608890664</v>
+        <v>0.1416788824319336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141976167962099</v>
+        <v>0.1419906137782181</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1495050805138057</v>
+        <v>0.1495161728381026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1437830856181692</v>
+        <v>0.1437979451812552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1659333186877155</v>
+        <v>0.1659682788472462</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1973149581547052</v>
+        <v>0.1973111592697598</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2277791557766951</v>
+        <v>0.2277822013782786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2265037346025781</v>
+        <v>0.2263552165716294</v>
       </c>
       <c r="K8" t="n">
-        <v>0.201508520756235</v>
+        <v>0.2012479351187053</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1589362158436149</v>
+        <v>0.1586889712849723</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2233978529327011</v>
+        <v>0.222988740886889</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2848304841623885</v>
+        <v>0.2843848871210187</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3182809809849355</v>
+        <v>0.317845672598187</v>
       </c>
       <c r="P8" t="n">
-        <v>0.340944480771261</v>
+        <v>0.340519405460996</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3633074496818503</v>
+        <v>0.3629367937533792</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3749628103364566</v>
+        <v>0.374601622995955</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4026102941735121</v>
+        <v>0.4022877386869649</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3823028358603525</v>
+        <v>0.3819525859167157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4090898775375335</v>
+        <v>0.4087985220609692</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4005898350048668</v>
+        <v>0.4003884193065594</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4233677172897813</v>
+        <v>0.4231193046697847</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4395373576451683</v>
+        <v>0.4392518175280024</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4205365690578685</v>
+        <v>0.4202719129962674</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4167277073264093</v>
+        <v>0.4163903834582177</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4204115972526889</v>
+        <v>0.4200716971027962</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4154149420060938</v>
+        <v>0.4150761565018493</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4096875787422922</v>
+        <v>0.4093495417924106</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450704577860341</v>
+        <v>0.1450703709854734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1472903980126985</v>
+        <v>0.1472841182916967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1476964718500082</v>
+        <v>0.1476919255117257</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1489026842151092</v>
+        <v>0.1488934597062617</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1495279906534603</v>
+        <v>0.1495193376969223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1561222953141126</v>
+        <v>0.1561696889200168</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1784145275061971</v>
+        <v>0.1784569361890964</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1858872173548388</v>
+        <v>0.1859862304134835</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1924716502859048</v>
+        <v>0.192535970894487</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1960430175988367</v>
+        <v>0.196225967887724</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2162038519135503</v>
+        <v>0.2163532157240336</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2330722283422764</v>
+        <v>0.2331006414715998</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2683133271899948</v>
+        <v>0.2684312340007911</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2500943808299385</v>
+        <v>0.2500525108310837</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2909237155009937</v>
+        <v>0.2908604614275596</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2177124979483733</v>
+        <v>0.2176191399311982</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2034560747643997</v>
+        <v>0.203179602470875</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2256385813532989</v>
+        <v>0.2251692978552942</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2063939454067936</v>
+        <v>0.2061563976799629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.143289920263522</v>
+        <v>0.14327171341846</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06836497103733422</v>
+        <v>0.06833877723304885</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1039358789497865</v>
+        <v>0.1039439979692781</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3011932559013944</v>
+        <v>0.3015046461408408</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3508520279559141</v>
+        <v>0.351065787478986</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1533218259932445</v>
+        <v>0.1536212629932676</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3670437464797885</v>
+        <v>0.3672660525769956</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5657687720487563</v>
+        <v>0.566186090122842</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.432496025121223</v>
+        <v>0.4338158471875823</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1357985801720785</v>
+        <v>0.1357991162678377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1278354960696371</v>
+        <v>0.1278729027699588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1283367409703703</v>
+        <v>0.1283654027270326</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1243968999970238</v>
+        <v>0.1244589019474094</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1190495976409392</v>
+        <v>0.1191338699777832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1136765812351038</v>
+        <v>0.1136453031603634</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07546436546534657</v>
+        <v>0.07544272604609438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07597155065106952</v>
+        <v>0.07582904288144587</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07748679196183908</v>
+        <v>0.07741392863022063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09262363135106337</v>
+        <v>0.09232063838325368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04903685593570337</v>
+        <v>0.04880363793611313</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03148373879122634</v>
+        <v>0.03126443417218267</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02598405268421661</v>
+        <v>0.02582642717531545</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01075874762746187</v>
+        <v>0.01070039642835538</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0299821631119148</v>
+        <v>0.02977873520458757</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008139100817537614</v>
+        <v>0.008122749617231095</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0021686586396626</v>
+        <v>0.002161860558418522</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001334051259503012</v>
+        <v>0.001329159867348837</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0001850187083867953</v>
+        <v>0.0001848481039483605</v>
       </c>
       <c r="U3" t="n">
-        <v>7.113633713370528e-05</v>
+        <v>7.132734505113196e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>5.790680971953862e-06</v>
+        <v>5.84151999989505e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.289161776957908e-06</v>
+        <v>2.315060816194009e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.635296171898661e-06</v>
+        <v>3.68305965183831e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.916978025807252e-07</v>
+        <v>8.041753991321704e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.783892971120844e-08</v>
+        <v>5.93823428357093e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.112103140224353e-08</v>
+        <v>3.201575505462404e-08</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.02990233417958e-08</v>
+        <v>2.091094660276471e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.970513339673786e-09</v>
+        <v>3.096385928408033e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1357985694305871</v>
+        <v>0.1357991055271839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1278354741233054</v>
+        <v>0.1278728808650798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1283367183955399</v>
+        <v>0.1283653801831453</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1243968717748226</v>
+        <v>0.1244588737893586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1190495642591411</v>
+        <v>0.1191338366745339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1136768396092252</v>
+        <v>0.1136455624459322</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07546504147493484</v>
+        <v>0.07544340202214951</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0759724782580489</v>
+        <v>0.07582997004344018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0774880473828622</v>
+        <v>0.07741518361548554</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09262528333594405</v>
+        <v>0.09232228730984648</v>
       </c>
       <c r="L4" t="n">
-        <v>0.10767251022797</v>
+        <v>0.1073659716242319</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1131568200050471</v>
+        <v>0.112903764463605</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1062929081454954</v>
+        <v>0.1060351531148519</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1238115342551749</v>
+        <v>0.1234855627865779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09682224603067119</v>
+        <v>0.09670279747703875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1263089041336949</v>
+        <v>0.1259358936235646</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1384113987679617</v>
+        <v>0.1380301386810889</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1433091536314409</v>
+        <v>0.1429737289812819</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1561266802883308</v>
+        <v>0.1557019458933253</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1614404336126586</v>
+        <v>0.1609210904036845</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1904999285363661</v>
+        <v>0.1898529330302866</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1433181767286414</v>
+        <v>0.1428369426029949</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05070118974942851</v>
+        <v>0.05055018039871968</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02551897306340667</v>
+        <v>0.02548485759113489</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03182027564703337</v>
+        <v>0.03171162039443506</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01508470277572004</v>
+        <v>0.01507917075373263</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.003860934059060856</v>
+        <v>0.003885374721696515</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001512782701664819</v>
+        <v>0.001529182025160003</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1357945258482443</v>
+        <v>0.1357950622601355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1278272126337548</v>
+        <v>0.1278646349787901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.128328220214725</v>
+        <v>0.1283568936495198</v>
       </c>
       <c r="E5" t="n">
-        <v>0.124386247737354</v>
+        <v>0.1244482738980975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1190369981800158</v>
+        <v>0.119121300160312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1136597658757466</v>
+        <v>0.1136285146258524</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0754448876729519</v>
+        <v>0.07542327668274523</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07594787003439366</v>
+        <v>0.07580541096001071</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07745754103983488</v>
+        <v>0.077384719090171</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09258617239463768</v>
+        <v>0.09228329449681894</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1017262625328495</v>
+        <v>0.1013667648276056</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1094659787389812</v>
+        <v>0.1090135229536968</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1263726182668087</v>
+        <v>0.1258918908696756</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1168469744086258</v>
+        <v>0.1163314027628437</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1374395923397772</v>
+        <v>0.1368215928696629</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1040706434336395</v>
+        <v>0.1035764452083843</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09799498327145927</v>
+        <v>0.09744164623906959</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1089445115803217</v>
+        <v>0.1082531600591226</v>
       </c>
       <c r="T5" t="n">
-        <v>0.100668312853644</v>
+        <v>0.1001204414839666</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07042212361251458</v>
+        <v>0.07010846840329295</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04249895280252333</v>
+        <v>0.04229599288793699</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06622122156572445</v>
+        <v>0.06593024477568997</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1708652815460514</v>
+        <v>0.1702689110498348</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2247077056986483</v>
+        <v>0.2239039552002926</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.147359301682238</v>
+        <v>0.1469108503700572</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2866328351025181</v>
+        <v>0.2853424347399278</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3412187333287962</v>
+        <v>0.3399089494420279</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5262954414688554</v>
+        <v>0.5244204577834349</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1534614956965209</v>
+        <v>0.1534606201841015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1657258843122908</v>
+        <v>0.1656639190069672</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1643898846404659</v>
+        <v>0.1643421206628364</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1703565701746256</v>
+        <v>0.1702525320952495</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1795024093552589</v>
+        <v>0.1793570421233771</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1813411392520908</v>
+        <v>0.1813138716462401</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2172135896503178</v>
+        <v>0.2171717878101682</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2095347564848754</v>
+        <v>0.209618150862009</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2012815504419757</v>
+        <v>0.2012937226026497</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1757771405948363</v>
+        <v>0.1760183530006322</v>
       </c>
       <c r="L6" t="n">
-        <v>0.203547808818899</v>
+        <v>0.2039262732200579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2108212645048357</v>
+        <v>0.2113689019661421</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1913538477102226</v>
+        <v>0.191805356383514</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2260399685893875</v>
+        <v>0.2265409284134166</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1691253501509634</v>
+        <v>0.1697693027986865</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2571069421209287</v>
+        <v>0.2575774235145635</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2745043443932065</v>
+        <v>0.2751210072135627</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2551602824221972</v>
+        <v>0.2559195796945288</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2649159111591183</v>
+        <v>0.2655173372681306</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3120245699912137</v>
+        <v>0.3124423918440624</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3348729146679178</v>
+        <v>0.3352914276465681</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3719259408505889</v>
+        <v>0.3723288643603149</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3256951793640051</v>
+        <v>0.3259714572284959</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.303608980118783</v>
+        <v>0.3040267721537766</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5250721229190929</v>
+        <v>0.5252884984089373</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2589943931309193</v>
+        <v>0.2598477621434225</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06923787660180589</v>
+        <v>0.06991794551978375</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03027285779153831</v>
+        <v>0.03068948978098524</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1410291290832781</v>
+        <v>0.1410293034261777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1386871260221957</v>
+        <v>0.138701922716935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1393112861303168</v>
+        <v>0.1393228865751411</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1382208899676283</v>
+        <v>0.1382467405626025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.135849966970289</v>
+        <v>0.1358883546397092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1414987360702953</v>
+        <v>0.1415940140879416</v>
       </c>
       <c r="H7" t="n">
-        <v>0.162590570376167</v>
+        <v>0.1626898428658271</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1683470805845198</v>
+        <v>0.1685046516034219</v>
       </c>
       <c r="J7" t="n">
-        <v>0.173193563711789</v>
+        <v>0.1733184641766167</v>
       </c>
       <c r="K7" t="n">
-        <v>0.17421594170313</v>
+        <v>0.1744581119653666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1177885693595283</v>
+        <v>0.1177805418043102</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09044756172020189</v>
+        <v>0.09024855104612364</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08918067625689136</v>
+        <v>0.08905411185622221</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04525780826774787</v>
+        <v>0.04519731511880092</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1051832521172347</v>
+        <v>0.104898097260373</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03303704894379267</v>
+        <v>0.03307728351106776</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01117000911586595</v>
+        <v>0.01116520143075269</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007756809931511403</v>
+        <v>0.007747266075767823</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001537385476102175</v>
+        <v>0.001538640120817988</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0006407210209950326</v>
+        <v>0.000643324986112898</v>
       </c>
       <c r="V7" t="n">
-        <v>6.269372131016007e-05</v>
+        <v>6.32563438622711e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>3.053354073350732e-05</v>
+        <v>3.086413763084749e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>5.54304759103719e-05</v>
+        <v>5.6111909897769e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.454193163059785e-05</v>
+        <v>1.474652068702633e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.202359094808743e-06</v>
+        <v>1.231257883417988e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.461746945250704e-07</v>
+        <v>9.706895622547934e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.795324318905154e-07</v>
+        <v>9.0373931534543e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.395472562341227e-07</v>
+        <v>1.450148834857862e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1530472419832569</v>
+        <v>0.1530464213490904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1647984088261178</v>
+        <v>0.1647396213705725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163600677798574</v>
+        <v>0.1635553906905992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1693398361334364</v>
+        <v>0.1692412180010207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1779834729408957</v>
+        <v>0.1778462587273623</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1800246426434256</v>
+        <v>0.1800030451136534</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2154070178540847</v>
+        <v>0.215372028383919</v>
       </c>
       <c r="I8" t="n">
-        <v>0.208339046632254</v>
+        <v>0.2084265432361887</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2006208551757943</v>
+        <v>0.2006380109903695</v>
       </c>
       <c r="K8" t="n">
-        <v>0.176128813021552</v>
+        <v>0.1763713469563581</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2040241412114993</v>
+        <v>0.2044035948636476</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2115524078974316</v>
+        <v>0.2121001839266501</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1925025697463706</v>
+        <v>0.1929558265996297</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2271905860216633</v>
+        <v>0.2276918836589218</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1705236807484452</v>
+        <v>0.1711690129620916</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2536248626020332</v>
+        <v>0.2540910645939904</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2722945310474443</v>
+        <v>0.2729005434062328</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2578566098217268</v>
+        <v>0.2586078074666559</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2701727461076243</v>
+        <v>0.2707803894498484</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3121110951619624</v>
+        <v>0.3125416835993362</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3636947485535765</v>
+        <v>0.3641517713382973</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3145659592027483</v>
+        <v>0.3149267710932751</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1514860276670384</v>
+        <v>0.151645010212559</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09529697953381482</v>
+        <v>0.09550307687972373</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1424252135603667</v>
+        <v>0.1424664771930767</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.07224334521532796</v>
+        <v>0.07246357708060422</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01991278413012547</v>
+        <v>0.02010071554338776</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.009422750398948921</v>
+        <v>0.009544875111568185</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1449163838057265</v>
+        <v>0.1449169342687688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1457161924397128</v>
+        <v>0.1457166282075187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1436527560167072</v>
+        <v>0.1436521343024097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1423991300851706</v>
+        <v>0.1423990802000552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1405312951687018</v>
+        <v>0.1405316894451535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.172019594374523</v>
+        <v>0.1720203091944573</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1817583510259625</v>
+        <v>0.1817565189978492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1713159271605644</v>
+        <v>0.171314911580939</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1381359880515786</v>
+        <v>0.1381398682482529</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1958088856056573</v>
+        <v>0.1958067957608712</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1842633609194685</v>
+        <v>0.18425821341602</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1887594902301348</v>
+        <v>0.1887571218555673</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2243105067880239</v>
+        <v>0.2243209411064601</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2694041896137871</v>
+        <v>0.269405358680932</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2627134075309701</v>
+        <v>0.2627278740745652</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1613105758783977</v>
+        <v>0.1613272330963553</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1025520042586243</v>
+        <v>0.1025629735593281</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04945878145981671</v>
+        <v>0.0494496365283262</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1057844823853736</v>
+        <v>0.1057623917656538</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04026709158211329</v>
+        <v>0.04021885490950464</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04086875342372959</v>
+        <v>0.04082030285386332</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02825645729550348</v>
+        <v>0.02822359100932977</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0139271623121387</v>
+        <v>0.01392655179850417</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.008727587807683596</v>
+        <v>0.008728797547820362</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0003606327974014643</v>
+        <v>0.0003597899955363954</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00021307211706218</v>
+        <v>0.0002126304593385237</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.67896121557345e-05</v>
+        <v>2.673524759535665e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.635313986720792e-05</v>
+        <v>1.631970363751919e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1363507198674006</v>
+        <v>0.1363482214048405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.132742842218849</v>
+        <v>0.1327406059646056</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141970074790887</v>
+        <v>0.1419714106561642</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1463543253914263</v>
+        <v>0.1463539575411953</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1528445850637284</v>
+        <v>0.1528433017487847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09915598018693506</v>
+        <v>0.09914968897060002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07747540320557636</v>
+        <v>0.07747319772372156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09966386431532923</v>
+        <v>0.09966077176739391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1555157710158059</v>
+        <v>0.155507481838961</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07573963526623337</v>
+        <v>0.07574608645424889</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1172094184691058</v>
+        <v>0.1172234540807417</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07558691353697397</v>
+        <v>0.07559201151343958</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05635035606784716</v>
+        <v>0.05633182143453393</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01914576618299449</v>
+        <v>0.01912595328424734</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004078552544073984</v>
+        <v>0.004075402503624979</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001587369785092848</v>
+        <v>0.001586481083825334</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0004636182480518302</v>
+        <v>0.0004633695578388887</v>
       </c>
       <c r="S3" t="n">
-        <v>8.660297548942983e-05</v>
+        <v>8.65482493249064e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0004191508593327894</v>
+        <v>0.0004189871262264347</v>
       </c>
       <c r="U3" t="n">
-        <v>3.294929217450071e-05</v>
+        <v>3.290952762082922e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>7.071094392374316e-06</v>
+        <v>7.062351994232381e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.023894962942118e-06</v>
+        <v>3.020316278698566e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>6.563947633085775e-07</v>
+        <v>6.563272632856229e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.960507464673828e-07</v>
+        <v>2.96093775728997e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.17992034695505e-08</v>
+        <v>1.179471849089512e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.450645451044387e-09</v>
+        <v>5.450419634726843e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.387894404014485e-10</v>
+        <v>4.387915530904424e-10</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.263450942723301e-10</v>
+        <v>2.263415452484909e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1363507099556011</v>
+        <v>0.1363482114899268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1327428277446639</v>
+        <v>0.1327405914877827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1419700718866294</v>
+        <v>0.1419714077545164</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1463543287561443</v>
+        <v>0.146353960905845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1528445975807492</v>
+        <v>0.1528433142638642</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09915653247033737</v>
+        <v>0.0991502411873537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07747603244370327</v>
+        <v>0.07747382688417537</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09966441173158373</v>
+        <v>0.09966131909243317</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1555157158373671</v>
+        <v>0.1555074267401588</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07574057447606258</v>
+        <v>0.07574702575135628</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05960231336363006</v>
+        <v>0.0596063570396063</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07766005529379756</v>
+        <v>0.07766779214772608</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07514841072502891</v>
+        <v>0.07516499854112289</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08732069084857177</v>
+        <v>0.08734527055442017</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1049477544837534</v>
+        <v>0.1049579968644741</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1130374663597725</v>
+        <v>0.1130467276294528</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1146147820733926</v>
+        <v>0.1146252206910348</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1102125843313045</v>
+        <v>0.1102157252415319</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1138430208047806</v>
+        <v>0.1138459381417513</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1192512942924885</v>
+        <v>0.1192413919348826</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1036700527315877</v>
+        <v>0.1036595422573882</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1153202387421701</v>
+        <v>0.1153046137514092</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1217537379053786</v>
+        <v>0.1216450268940144</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1442977443716993</v>
+        <v>0.1441688780384491</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1564595279204409</v>
+        <v>0.1563897425284912</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1608935403454217</v>
+        <v>0.1608191351509064</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1818144434814056</v>
+        <v>0.1817328059690733</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1872491722442698</v>
+        <v>0.1871657777781743</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1363469787115624</v>
+        <v>0.1363444790736936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13273737909442</v>
+        <v>0.1327351418447485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1419689784396006</v>
+        <v>0.1419703152901937</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1463555951889482</v>
+        <v>0.1463552273132663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.152849309249614</v>
+        <v>0.1528480252021938</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09915007480672566</v>
+        <v>0.09914378401721935</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07746753011092733</v>
+        <v>0.07746532547188684</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09965805546824097</v>
+        <v>0.09965496385285187</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1555216969789444</v>
+        <v>0.15551340548597</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07572659706207292</v>
+        <v>0.07573304666114808</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07163504179995013</v>
+        <v>0.07163991307608721</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07293140443824743</v>
+        <v>0.07293744085579006</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08698014604338744</v>
+        <v>0.08699226087517289</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1041649553860581</v>
+        <v>0.104174634845323</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1003439470023177</v>
+        <v>0.1003589290150263</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0621639434480705</v>
+        <v>0.06217609115264702</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03990543886695588</v>
+        <v>0.03991338242269817</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01952330775938723</v>
+        <v>0.01952151758061164</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0410138391334896</v>
+        <v>0.04100901962195794</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01607522238353562</v>
+        <v>0.01605769628995974</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01839931575970042</v>
+        <v>0.01837984336147807</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01365719443517102</v>
+        <v>0.0136429659741754</v>
       </c>
       <c r="X5" t="n">
-        <v>0.007800421855522766</v>
+        <v>0.007800621974601238</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005203392599814872</v>
+        <v>0.005204394996667865</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0003333780932012719</v>
+        <v>0.0003325747812833867</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0002091263474555479</v>
+        <v>0.0002086730323339846</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.016841069654307e-05</v>
+        <v>3.010424847214796e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.929581507444867e-05</v>
+        <v>1.925451031182831e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526145854512111</v>
+        <v>0.1526185872355476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1583848406591435</v>
+        <v>0.1583884819612508</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1436368183356085</v>
+        <v>0.1436350262524069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1369183281572482</v>
+        <v>0.1369190571935749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1269751292570402</v>
+        <v>0.1269770652389396</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1744981831630974</v>
+        <v>0.1745072203740138</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1965997687703258</v>
+        <v>0.1966053975206999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1744502267762095</v>
+        <v>0.1744562906700579</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1253978554980393</v>
+        <v>0.1254065946183394</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1854059927592444</v>
+        <v>0.1853993591611809</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1431376391296795</v>
+        <v>0.1431300826414743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.192112776493536</v>
+        <v>0.1921088991480772</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1804708985657043</v>
+        <v>0.1804898951005756</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2062035094408471</v>
+        <v>0.2062392543657451</v>
       </c>
       <c r="P6" t="n">
-        <v>0.24701354365519</v>
+        <v>0.2470044330624637</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3282946368182907</v>
+        <v>0.3282783243428327</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3766185281274805</v>
+        <v>0.3766045105096653</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4222397162053597</v>
+        <v>0.422247665415797</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3744798263217547</v>
+        <v>0.3744968862930084</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4209958869753013</v>
+        <v>0.4210440779798166</v>
       </c>
       <c r="V6" t="n">
-        <v>0.456951514925918</v>
+        <v>0.4570077112857033</v>
       </c>
       <c r="W6" t="n">
-        <v>0.439667158483974</v>
+        <v>0.4397164422522445</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4254032601713653</v>
+        <v>0.4256183680341941</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3826385957084368</v>
+        <v>0.3828637033038024</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3292903159703645</v>
+        <v>0.3293457904037887</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3308132716419701</v>
+        <v>0.3308685015921398</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3378259298152324</v>
+        <v>0.3378856018727726</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3390117697045719</v>
+        <v>0.3390725402624845</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1411827668923964</v>
+        <v>0.1411818970459738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1399399389916107</v>
+        <v>0.1399391089540997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431255932407492</v>
+        <v>0.1431257481368576</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1443835183648966</v>
+        <v>0.1443832639157437</v>
       </c>
       <c r="F7" t="n">
-        <v>0.146259348424292</v>
+        <v>0.1462590094875587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1811014095428119</v>
+        <v>0.1811017893532212</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1925248476987026</v>
+        <v>0.1925223420563289</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1804043417085533</v>
+        <v>0.1804027759504862</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1438218188630249</v>
+        <v>0.1438254866838228</v>
       </c>
       <c r="K7" t="n">
-        <v>0.205227246392865</v>
+        <v>0.2052232247446957</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2800888940941555</v>
+        <v>0.2800862096647745</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2000072596337273</v>
+        <v>0.1999984800403589</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1950997909191473</v>
+        <v>0.1950410814066321</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1059577796593328</v>
+        <v>0.1058705123681632</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03187491516700037</v>
+        <v>0.03185634417105402</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01291117586899258</v>
+        <v>0.01290618237652716</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004194102830462799</v>
+        <v>0.004192563872949077</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0008706177457761341</v>
+        <v>0.000870177304952419</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004444230697268683</v>
+        <v>0.004443009585526314</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003813016825536533</v>
+        <v>0.0003808341196158387</v>
       </c>
       <c r="V7" t="n">
-        <v>9.51712053743979e-05</v>
+        <v>9.50496836515757e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.304608734164031e-05</v>
+        <v>4.299327273036925e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.013064255689261e-05</v>
+        <v>1.012934839460596e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.721327395616958e-06</v>
+        <v>4.721870532808013e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.809941420298507e-07</v>
+        <v>1.808964733372814e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.541247224648736e-08</v>
+        <v>8.539484143171723e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.106345467946361e-09</v>
+        <v>7.10520753653667e-09</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.714392182466048e-09</v>
+        <v>3.713722713777131e-09</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522378553161018</v>
+        <v>0.152241669481249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1577359788516</v>
+        <v>0.157739441579994</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1436757072898183</v>
+        <v>0.1436739576074515</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1372347740561658</v>
+        <v>0.1372354529303198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1276957352558745</v>
+        <v>0.1276975946135055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1749182254555697</v>
+        <v>0.1749269669031346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.196698066744802</v>
+        <v>0.1967033913453383</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1748431728395189</v>
+        <v>0.174848967085838</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1260911537552398</v>
+        <v>0.1260997363844951</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1863510684378644</v>
+        <v>0.186344461466499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1440633322240105</v>
+        <v>0.1440557700812959</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1929421003735828</v>
+        <v>0.1929382544390409</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1816398908908611</v>
+        <v>0.1816590015355024</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2078031088684086</v>
+        <v>0.2078390159011693</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2490278796166944</v>
+        <v>0.2490190203087919</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3206948318413833</v>
+        <v>0.3206789603183597</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3616515255950322</v>
+        <v>0.3616379793864856</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3976083895228662</v>
+        <v>0.397608729679456</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3600154497980002</v>
+        <v>0.3600237674658759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.402996253791833</v>
+        <v>0.4030242352385997</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3800081208592975</v>
+        <v>0.3800304882059213</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4030528810608767</v>
+        <v>0.4030663734238319</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4311046307182744</v>
+        <v>0.4309986456230281</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4591276621342235</v>
+        <v>0.4590292081489517</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5135559524252464</v>
+        <v>0.5135719095997086</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5078708986849727</v>
+        <v>0.5078909689200202</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4803026611353748</v>
+        <v>0.4803247451180875</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4737034051554795</v>
+        <v>0.4737261038053278</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1451410290341799</v>
+        <v>0.1451396473277845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436479248325946</v>
+        <v>0.1436466988451566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438933186877107</v>
+        <v>0.1438940224775062</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1459684067698232</v>
+        <v>0.1459675466141613</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1472655068900806</v>
+        <v>0.1472632017591445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1477482370218323</v>
+        <v>0.1477183197248855</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1529757823129877</v>
+        <v>0.152939486087413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09297458938022575</v>
+        <v>0.09311058508965052</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04989895403315157</v>
+        <v>0.0500561875289723</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0280022466969258</v>
+        <v>0.02818191851606095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03172013317627694</v>
+        <v>0.03192910663028083</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02930034573852851</v>
+        <v>0.02951413107904278</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0335711173107584</v>
+        <v>0.03380521920583129</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02688363422487078</v>
+        <v>0.02708405757370826</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01563114042959996</v>
+        <v>0.01576417464588353</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02747208863640117</v>
+        <v>0.02768051141535317</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02324410328972721</v>
+        <v>0.02340311547622961</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01162801061081708</v>
+        <v>0.01171370131705581</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007237626254013237</v>
+        <v>0.007295516011578728</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004080186418690147</v>
+        <v>0.004117688877555763</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002731595081620981</v>
+        <v>0.002754009574032228</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001723418088284257</v>
+        <v>0.001733986284623274</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0007796519003384199</v>
+        <v>0.0007850422192044873</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001790554373784</v>
+        <v>0.0001805829766734136</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.439448495356914e-05</v>
+        <v>8.516960280674777e-05</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.232547885024903e-05</v>
+        <v>3.265116338050986e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.363318629104977e-05</v>
+        <v>1.377906663960195e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.22375397681349e-08</v>
+        <v>2.262314268951004e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1351327914582146</v>
+        <v>0.1351380852725044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1418490952873834</v>
+        <v>0.1418521569827142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1426837883583317</v>
+        <v>0.1426798005409965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1342446761026776</v>
+        <v>0.1342462075947028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1298271070416375</v>
+        <v>0.1298366167172709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1336790342573011</v>
+        <v>0.1337297066506968</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1332684507259711</v>
+        <v>0.1333238081105579</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2289249862424172</v>
+        <v>0.2287462085421394</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2827456640921557</v>
+        <v>0.2825689481125381</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3074618406985113</v>
+        <v>0.3072824724326423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2873194935814306</v>
+        <v>0.2868617122075038</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4177815713155253</v>
+        <v>0.4169027660348226</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3870741093808838</v>
+        <v>0.3863966950368168</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5159236646579735</v>
+        <v>0.5150970959206432</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7090624728811885</v>
+        <v>0.7081812875733414</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5138954380539851</v>
+        <v>0.5130183026890048</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6107838702100806</v>
+        <v>0.6102442323392764</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7837239348954393</v>
+        <v>0.7831122585490456</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8416814209714026</v>
+        <v>0.8410715537654525</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8780625133640657</v>
+        <v>0.8774191773208887</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8923614397374863</v>
+        <v>0.8917820605494086</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8966749727840585</v>
+        <v>0.8961218409994569</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9082071554622453</v>
+        <v>0.9076523613714266</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9207028277644933</v>
+        <v>0.9201774966817489</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9285858314625766</v>
+        <v>0.9281008294698835</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9209291499099007</v>
+        <v>0.9203962369474196</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9276434080079864</v>
+        <v>0.927148122722989</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9330929743518372</v>
+        <v>0.9326196245916453</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1351327801007287</v>
+        <v>0.1351380739222737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1418490923495334</v>
+        <v>0.1418521540502869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1426837851734725</v>
+        <v>0.1426797973517877</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1342446618647429</v>
+        <v>0.1342461933600743</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1298270865770406</v>
+        <v>0.1298365962649248</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1336792975759623</v>
+        <v>0.1337299691035237</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1332691913978793</v>
+        <v>0.1333245478546786</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2289251674999933</v>
+        <v>0.2287463924407957</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2827449785060779</v>
+        <v>0.2825682698080489</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3074608482977207</v>
+        <v>0.3072814954064005</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2826432884723795</v>
+        <v>0.2826956056901703</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1753233139710509</v>
+        <v>0.1755607827766251</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1524947075390893</v>
+        <v>0.1526229727976696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1005113682955795</v>
+        <v>0.1006569103144687</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04296084747236285</v>
+        <v>0.04307620742584485</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09413448565261755</v>
+        <v>0.09430172760154891</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04430755358228532</v>
+        <v>0.04435001276438361</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004714228943521457</v>
+        <v>0.004723652884861288</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002398484423512923</v>
+        <v>0.002405262239596551</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0007912884999416493</v>
+        <v>0.0007948141375063285</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0002719733713497475</v>
+        <v>0.0002729905779076583</v>
       </c>
       <c r="W4" t="n">
-        <v>5.791834277699604e-05</v>
+        <v>5.804764376550644e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>1.162656403076359e-05</v>
+        <v>1.166794897508758e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.189471472055214e-07</v>
+        <v>9.24261003086094e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.428087862094638e-07</v>
+        <v>2.444751004263283e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.556586387454469e-08</v>
+        <v>1.570728286187213e-08</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.678627540797982e-09</v>
+        <v>2.706234826428677e-09</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.315612660619012e-12</v>
+        <v>3.375858417162912e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1351285046665965</v>
+        <v>0.1351338012192657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1418479862751989</v>
+        <v>0.1418510500173169</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1426825859673674</v>
+        <v>0.1426785965083905</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1342393019671017</v>
+        <v>0.1342408347070663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298193827606413</v>
+        <v>0.1298288970599855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1336663918631736</v>
+        <v>0.1337170809608763</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1332479645999387</v>
+        <v>0.1333033394006749</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2289077767852878</v>
+        <v>0.2287289762055573</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2827393967905798</v>
+        <v>0.2825625835566095</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3074590916912313</v>
+        <v>0.3072794939650687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3495686810149097</v>
+        <v>0.3494182102638102</v>
       </c>
       <c r="M5" t="n">
-        <v>0.326234517488273</v>
+        <v>0.3263190596897292</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3753547885146904</v>
+        <v>0.375334187157097</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3022461113540328</v>
+        <v>0.3023730636727944</v>
       </c>
       <c r="P5" t="n">
-        <v>0.177322331091196</v>
+        <v>0.1775816389008156</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3138559324867774</v>
+        <v>0.314026360674526</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2624885281183322</v>
+        <v>0.2624347858196987</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1281236884326586</v>
+        <v>0.1281658326383981</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07937994286195584</v>
+        <v>0.07945601806352734</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04424899004034623</v>
+        <v>0.04434428355854497</v>
       </c>
       <c r="V5" t="n">
-        <v>0.026576530781935</v>
+        <v>0.02660817736140627</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01395721703971954</v>
+        <v>0.01394517602854841</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005523138913540591</v>
+        <v>0.005523193038049269</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0010384216846863</v>
+        <v>0.001040246223374157</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0004465812902367695</v>
+        <v>0.0004476874977160706</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001124827793710346</v>
+        <v>0.0001128976182331629</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.081975587782714e-05</v>
+        <v>4.099987531899623e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.437119117378657e-09</v>
+        <v>2.469678600622088e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1546083022266388</v>
+        <v>0.1546000539717543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1438656613904885</v>
+        <v>0.1438613437143052</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1420700032364947</v>
+        <v>0.1420765834149556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1553634363808663</v>
+        <v>0.1553615312026342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1621089151233066</v>
+        <v>0.1620938931555898</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1560085318886995</v>
+        <v>0.1559588162771985</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1517615523081949</v>
+        <v>0.1517108631663435</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06737478056324547</v>
+        <v>0.0675086897871722</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02842841941495846</v>
+        <v>0.02854136447368037</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01243923698918241</v>
+        <v>0.01253696226397584</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01108075527426963</v>
+        <v>0.01117712111841603</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006559730955660657</v>
+        <v>0.006624835013369294</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005451232249003866</v>
+        <v>0.005502440353314987</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003516273301649518</v>
+        <v>0.003551507067050086</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001454208598477948</v>
+        <v>0.001470621434157093</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003227061925102711</v>
+        <v>0.003260638018940386</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001286919542761453</v>
+        <v>0.001299323729314764</v>
       </c>
       <c r="S6" t="n">
-        <v>7.861199512415835e-05</v>
+        <v>7.946745563185805e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>3.794876481059381e-05</v>
+        <v>3.839530887280747e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.079164506123561e-05</v>
+        <v>1.093751899606203e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>4.490581889006994e-06</v>
+        <v>4.547551159148564e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.285026650549885e-06</v>
+        <v>1.29904856604989e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>3.255373201018198e-07</v>
+        <v>3.294766947069311e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.379738376750549e-08</v>
+        <v>3.427809867510652e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.062989165435827e-08</v>
+        <v>1.079134810716379e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.997706335489554e-10</v>
+        <v>7.119575040573869e-10</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.230853051743172e-10</v>
+        <v>1.253787776682894e-10</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.308891278653741e-13</v>
+        <v>1.343945742251039e-13</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1407263814138447</v>
+        <v>0.1407280147927815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.143049629354622</v>
+        <v>0.1430501713413238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1437541122258724</v>
+        <v>0.1437525399591472</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1410065522297375</v>
+        <v>0.141006608894644</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1397396606025805</v>
+        <v>0.1397428069552363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.139677624277336</v>
+        <v>0.1396540594536591</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1438600319409774</v>
+        <v>0.1438309641894608</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08493553608214381</v>
+        <v>0.08506787250105713</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04456252094576829</v>
+        <v>0.04470849165377454</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02444347670924191</v>
+        <v>0.02460487026374831</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02629889620349374</v>
+        <v>0.02645112738827959</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03804774756757102</v>
+        <v>0.03825895680492956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04042354759569976</v>
+        <v>0.04065536132855406</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0472814349480635</v>
+        <v>0.04756357887865727</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05206111423401208</v>
+        <v>0.05240124077561971</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04406977073051051</v>
+        <v>0.04433261653715161</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05652297951100704</v>
+        <v>0.05688940681424063</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07164093613419777</v>
+        <v>0.07211352103158572</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06922051624077429</v>
+        <v>0.06968868019977802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07279343008901787</v>
+        <v>0.07330012713206928</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07804928572417215</v>
+        <v>0.07857347045038852</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08758409145151562</v>
+        <v>0.0881385406234929</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08547786380716139</v>
+        <v>0.08602716519994137</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07807872185310683</v>
+        <v>0.07860069476521706</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07088293357577836</v>
+        <v>0.07136605232582939</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07892602518065679</v>
+        <v>0.0794581974592781</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07230213617926304</v>
+        <v>0.07279709543326125</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06690700096999176</v>
+        <v>0.06738035031195591</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1541302110997969</v>
+        <v>0.1541223234936359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1438906105101792</v>
+        <v>0.1438864250488963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1422324063507507</v>
+        <v>0.1422386597472164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1549329646850507</v>
+        <v>0.1549310776267172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1614123410047127</v>
+        <v>0.1613979880878481</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1555408831156954</v>
+        <v>0.1554920478291603</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1516170267140509</v>
+        <v>0.1515669911908711</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06795716344668661</v>
+        <v>0.06809127543362772</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02888006621730833</v>
+        <v>0.02899415486637615</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01273325891718657</v>
+        <v>0.01283278715210361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01136875227723989</v>
+        <v>0.01146711670153916</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006752772963390655</v>
+        <v>0.006819468601481356</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005630497409874602</v>
+        <v>0.005683124120716436</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003637513217830357</v>
+        <v>0.003673786572678112</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001507885293162623</v>
+        <v>0.001524829244337827</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003345222514605548</v>
+        <v>0.003379843063475101</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001366045745806367</v>
+        <v>0.001379123056856308</v>
       </c>
       <c r="S8" t="n">
-        <v>9.058898824153875e-05</v>
+        <v>9.15661234215359e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>4.406048353054381e-05</v>
+        <v>4.457441119407107e-05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.279994287722614e-05</v>
+        <v>1.297145443883049e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>4.684721547088909e-06</v>
+        <v>4.743935697639638e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09726699474655e-06</v>
+        <v>1.109371546858249e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>2.378153633631013e-07</v>
+        <v>2.407457085779507e-07</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.051580419869655e-08</v>
+        <v>2.081388472915238e-08</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.747776992659232e-09</v>
+        <v>5.837315629872892e-09</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.855869026216798e-10</v>
+        <v>3.924484277270942e-10</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.886885774233032e-11</v>
+        <v>7.017760795942748e-11</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.553051034412815e-14</v>
+        <v>6.732032901983501e-14</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1406833170756001</v>
+        <v>0.1406831333091123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1388458465861639</v>
+        <v>0.1388444065101334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1407258603143591</v>
+        <v>0.1407241943099871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1424199407516193</v>
+        <v>0.142418352685232</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1447122501212357</v>
+        <v>0.1447109161543116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.164127849250038</v>
+        <v>0.164126137069559</v>
       </c>
       <c r="H2" t="n">
-        <v>0.166447004001186</v>
+        <v>0.1664405645636035</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1398027283261333</v>
+        <v>0.1397854758667318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1522890882903034</v>
+        <v>0.1522535787467867</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1261475075769054</v>
+        <v>0.126043270666314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1263966555348335</v>
+        <v>0.1262969812926093</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1225688237556953</v>
+        <v>0.122471986604855</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1234760306037086</v>
+        <v>0.1233886129422945</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1477992671107845</v>
+        <v>0.1477004061067302</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1190273311886249</v>
+        <v>0.1189423746368955</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06581647682061327</v>
+        <v>0.06572045227747055</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05676580870295228</v>
+        <v>0.05668563385950503</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07401901176895526</v>
+        <v>0.07391584317853626</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05135046480097785</v>
+        <v>0.0512975714477872</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004886786571135067</v>
+        <v>0.004865350126175776</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002264921210746183</v>
+        <v>0.002255459395951586</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004133464437931126</v>
+        <v>0.004117412196955929</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00145512050384808</v>
+        <v>0.001449553877089584</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0009709391718038849</v>
+        <v>0.0009671422631153616</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.673140974532489e-09</v>
+        <v>9.598418711430636e-09</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.586866760722735e-09</v>
+        <v>1.574703661568318e-09</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.904801774681208e-10</v>
+        <v>9.828080738559412e-10</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.784646951929235e-10</v>
+        <v>5.739597123185704e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1495396794252284</v>
+        <v>0.1495399337211685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1553369529148127</v>
+        <v>0.1553400645592523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1498156376121703</v>
+        <v>0.1498197226696312</v>
       </c>
       <c r="E3" t="n">
-        <v>0.144209155860415</v>
+        <v>0.1442132723150294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.136278908392523</v>
+        <v>0.1362828818933302</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0979758323493902</v>
+        <v>0.09798071612575823</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0927300166948103</v>
+        <v>0.09275103885438039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1416163774628993</v>
+        <v>0.1416477287449766</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1273487453217423</v>
+        <v>0.1274085257025614</v>
       </c>
       <c r="K3" t="n">
-        <v>0.178195149211773</v>
+        <v>0.1783321210074853</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1242822542980533</v>
+        <v>0.1243814823047981</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1764121708190271</v>
+        <v>0.1765166903039519</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09763968463867757</v>
+        <v>0.09771463505619293</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04110584334895775</v>
+        <v>0.04113439045415766</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01538606040879732</v>
+        <v>0.01539658031652375</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.582949287146195e-06</v>
+        <v>5.535648891319976e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>3.480144340184809e-06</v>
+        <v>3.451060093506588e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.066942780525106e-05</v>
+        <v>1.058025182862912e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572391732257028e-06</v>
+        <v>2.551954611846684e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>3.032246142542487e-07</v>
+        <v>3.009529435954328e-07</v>
       </c>
       <c r="V3" t="n">
-        <v>5.905926208406246e-08</v>
+        <v>5.862552425410966e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.218159779416589e-08</v>
+        <v>4.188527336650754e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>8.066754453553229e-09</v>
+        <v>8.012536226341409e-09</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.968403951047216e-09</v>
+        <v>3.94126018858695e-09</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.671223961338626e-11</v>
+        <v>6.634237536771519e-11</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.333493548467943e-12</v>
+        <v>8.284885937127959e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.22534785956119e-12</v>
+        <v>4.200270578842229e-12</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.069756735056103e-12</v>
+        <v>2.057369627158221e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1495396899401788</v>
+        <v>0.149539944236875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1553369722386858</v>
+        <v>0.1553400838894452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.149815648004864</v>
+        <v>0.1498197330698174</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1442091578379476</v>
+        <v>0.1442132742997599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1362788989295759</v>
+        <v>0.1362828724366876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09797619879318452</v>
+        <v>0.09798108256047713</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09273042941959145</v>
+        <v>0.09275145154706067</v>
       </c>
       <c r="I4" t="n">
-        <v>0.141616194694942</v>
+        <v>0.1416475453205947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1273493967989766</v>
+        <v>0.127409176279517</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1781965010918324</v>
+        <v>0.1783334710480774</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2131285060236349</v>
+        <v>0.213300734656395</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1842391449223206</v>
+        <v>0.1843962208505847</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2354344542821915</v>
+        <v>0.2356248679348187</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2530725974306824</v>
+        <v>0.2532773190958265</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3016756765344757</v>
+        <v>0.3019417904466419</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3532483154185773</v>
+        <v>0.3536080583425859</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3545875426591859</v>
+        <v>0.3549486601233767</v>
       </c>
       <c r="S4" t="n">
-        <v>0.35039002159669</v>
+        <v>0.3507473958040858</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3849795207778876</v>
+        <v>0.3853602283812701</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3519407578822914</v>
+        <v>0.3521831009930948</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3587664740994136</v>
+        <v>0.3589671403372829</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2724091404933508</v>
+        <v>0.2725758966103575</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3473332777037589</v>
+        <v>0.347574001941578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3777566845687572</v>
+        <v>0.378010675549499</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5161374181680189</v>
+        <v>0.5163984361166343</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5522888084309001</v>
+        <v>0.5524993494809475</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.559201679038169</v>
+        <v>0.5594128848898233</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5694481325091738</v>
+        <v>0.5696588553453604</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1495436482915147</v>
+        <v>0.149543902872857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1553442466513794</v>
+        <v>0.1553473606814282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1498195602563261</v>
+        <v>0.1498236481417054</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1442099022449617</v>
+        <v>0.1442140214163267</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1362753366899253</v>
+        <v>0.1362793125702246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09796711205971941</v>
+        <v>0.09797199771557878</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09272067701520707</v>
+        <v>0.09274170089270696</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1416155164291998</v>
+        <v>0.1416468803700054</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1273345205029401</v>
+        <v>0.1273943165110901</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1781679848108639</v>
+        <v>0.1783049865629542</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1776975653477054</v>
+        <v>0.1778409085192942</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1729066086777434</v>
+        <v>0.1730455735529655</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1729133351343624</v>
+        <v>0.1730668981761172</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2064692990555689</v>
+        <v>0.2066606914927531</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1643850409032088</v>
+        <v>0.1645298316243905</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09335416617063111</v>
+        <v>0.09336942078076392</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08078638402448673</v>
+        <v>0.08080328426871031</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1046435779392337</v>
+        <v>0.1046673798807884</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07387215941666846</v>
+        <v>0.07391561631237101</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007280134283830302</v>
+        <v>0.007259986161802873</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003982618464645767</v>
+        <v>0.003972425818028039</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007945889442246555</v>
+        <v>0.007927964249214615</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003177075514305394</v>
+        <v>0.003169899818499964</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002239150836114758</v>
+        <v>0.002233917933203699</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.136147017673572e-08</v>
+        <v>8.08507277565067e-08</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.404172688296961e-08</v>
+        <v>1.39562448183285e-08</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.239232058446859e-09</v>
+        <v>9.182295094509824e-09</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.666838748163284e-09</v>
+        <v>5.631692071236493e-09</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1329084164820257</v>
+        <v>0.132908149098804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1242156511417652</v>
+        <v>0.1242114846049851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1323463718600345</v>
+        <v>0.1323406537736953</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1408327106137663</v>
+        <v>0.140826846634444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1529569857520206</v>
+        <v>0.1529511098860997</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1908343212898619</v>
+        <v>0.1908272669806973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1963564281492367</v>
+        <v>0.1963300614653259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1497727746534317</v>
+        <v>0.149741758503805</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1589471510720154</v>
+        <v>0.1588915828506824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1092458625043613</v>
+        <v>0.10914205206876</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1335040029830982</v>
+        <v>0.1333824116489424</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1140163060994845</v>
+        <v>0.1139180265416945</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1486227541516253</v>
+        <v>0.1484847049046887</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1551886573044621</v>
+        <v>0.155043681972044</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1908467733983859</v>
+        <v>0.1906863756667734</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2450353189733714</v>
+        <v>0.2448971142810834</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2559496102118776</v>
+        <v>0.2558012167579277</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2361802855343513</v>
+        <v>0.2360425403985901</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2440633099703312</v>
+        <v>0.2438774398643593</v>
       </c>
       <c r="U6" t="n">
-        <v>0.323388184736933</v>
+        <v>0.3233003576186226</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3113541059142237</v>
+        <v>0.3113019940151052</v>
       </c>
       <c r="W6" t="n">
-        <v>0.420803974424494</v>
+        <v>0.4207790516694648</v>
       </c>
       <c r="X6" t="n">
-        <v>0.326154364793339</v>
+        <v>0.3260698017565513</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2928524009695353</v>
+        <v>0.2927627076365088</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1217230422729862</v>
+        <v>0.1216782547575472</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1191366915120419</v>
+        <v>0.1190932666544657</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1183992663074888</v>
+        <v>0.1183552405667514</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.117235584154274</v>
+        <v>0.1171908427616778</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444948638133024</v>
+        <v>0.1444948210710096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1459868955826929</v>
+        <v>0.1459872245209505</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1447136615577509</v>
+        <v>0.1447143296273268</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1432127394678853</v>
+        <v>0.1432135125034044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1409641659440656</v>
+        <v>0.1409651105388593</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1613445200132068</v>
+        <v>0.1613454220461096</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1638392192670373</v>
+        <v>0.163834503362469</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1362986245865238</v>
+        <v>0.1362832921263357</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1481669511410766</v>
+        <v>0.1481334969269168</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1204898434358066</v>
+        <v>0.1203907066792791</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09131426382514637</v>
+        <v>0.09124205583551841</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1155944968890297</v>
+        <v>0.1154872194204689</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0731697949306914</v>
+        <v>0.07311381296625225</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04071540015436659</v>
+        <v>0.04067920619411742</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0176568740273145</v>
+        <v>0.01764068209977217</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.547048872137321e-05</v>
+        <v>3.518192328185419e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>2.330572537081432e-05</v>
+        <v>2.311858477854005e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>6.029127550591001e-05</v>
+        <v>5.980825809051869e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.600900937927655e-05</v>
+        <v>1.588767383279103e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.658063922101497e-06</v>
+        <v>1.645605425480829e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>3.510275176863528e-07</v>
+        <v>3.48445119512257e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>2.777795026190645e-07</v>
+        <v>2.758222756585119e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>5.626816141437398e-08</v>
+        <v>5.588776015807218e-08</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.856232330612612e-08</v>
+        <v>2.836592735659002e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.094548492146505e-10</v>
+        <v>3.077362405667731e-10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.967320880014602e-11</v>
+        <v>3.944226282145908e-11</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.046742343560746e-11</v>
+        <v>2.034621893424007e-11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.01644354344753e-11</v>
+        <v>1.010374243464744e-11</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1332903849721499</v>
+        <v>0.1332901156901737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1249334348845001</v>
+        <v>0.1249293752338053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1327632603944949</v>
+        <v>0.1327577184078367</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1409063932234046</v>
+        <v>0.1409007201458035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1525334541706539</v>
+        <v>0.1525277965204869</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1897741662445991</v>
+        <v>0.18976737750182</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1951762254529312</v>
+        <v>0.1951506793144534</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1492777838468701</v>
+        <v>0.1492473190675508</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1585641468729457</v>
+        <v>0.1585093229824457</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1095571513684575</v>
+        <v>0.1094533919671302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1336767519875284</v>
+        <v>0.1335554257424427</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1142624488366994</v>
+        <v>0.1141642827254794</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1487439462587431</v>
+        <v>0.1486064680196355</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1556489355951777</v>
+        <v>0.1555043046843712</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1910222435391929</v>
+        <v>0.1908623652090027</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2425046691787985</v>
+        <v>0.2423642367459232</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2518838685317866</v>
+        <v>0.2517346353456084</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2346961424574586</v>
+        <v>0.2345564522280802</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2457159636330233</v>
+        <v>0.2455307043657678</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3125021752372739</v>
+        <v>0.3123892585419348</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3236314702241908</v>
+        <v>0.3235025733629885</v>
       </c>
       <c r="W8" t="n">
-        <v>0.294707211240877</v>
+        <v>0.2945993575664582</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3218800971498328</v>
+        <v>0.3217366787059848</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3261807919230615</v>
+        <v>0.3260255243104856</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3621394481482166</v>
+        <v>0.3619232183025933</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3285744843804576</v>
+        <v>0.3284073682859112</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3223990443999373</v>
+        <v>0.3222318643537756</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3133162770790143</v>
+        <v>0.3131502956751488</v>
       </c>
     </row>
   </sheetData>
